--- a/data/trans_orig/P57_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F98A8E0C-254E-4245-BBCF-A8907AEFBBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8670724-2D24-4516-A6C1-649E287CEE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{257A6B6C-973D-4934-84E2-882B48936E53}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FD136E98-50D9-4398-B52C-C02F34DD69F9}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="266">
   <si>
     <t>Población con felicidad &lt;= 6 (Likert 0 a 10) en 2015 (Tasa respuesta: 99,57%)</t>
   </si>
@@ -474,319 +474,313 @@
     <t>3,37%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
   </si>
   <si>
     <t>7,11%</t>
   </si>
   <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
   </si>
   <si>
     <t>5,18%</t>
   </si>
   <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
+    <t>3,1%</t>
   </si>
   <si>
     <t>96,63%</t>
   </si>
   <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
   </si>
   <si>
     <t>92,89%</t>
   </si>
   <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
   </si>
   <si>
     <t>94,82%</t>
   </si>
   <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
+    <t>96,9%</t>
   </si>
   <si>
     <t>7,84%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
   </si>
   <si>
     <t>6,78%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
   </si>
   <si>
     <t>7,27%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
   </si>
   <si>
     <t>92,16%</t>
   </si>
   <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
   </si>
   <si>
     <t>93,22%</t>
   </si>
   <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
   </si>
   <si>
     <t>92,73%</t>
   </si>
   <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
   </si>
   <si>
     <t>8,27%</t>
   </si>
   <si>
-    <t>11,26%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
   </si>
   <si>
     <t>7,69%</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
   </si>
   <si>
     <t>7,97%</t>
   </si>
   <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
   </si>
   <si>
     <t>91,73%</t>
   </si>
   <si>
-    <t>88,74%</t>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
   </si>
   <si>
     <t>92,31%</t>
   </si>
   <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
   </si>
   <si>
     <t>92,03%</t>
   </si>
   <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
   </si>
   <si>
     <t>10,0%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
   </si>
   <si>
     <t>15,39%</t>
   </si>
   <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
   </si>
   <si>
     <t>12,72%</t>
   </si>
   <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
   </si>
   <si>
     <t>90,0%</t>
   </si>
   <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
   </si>
   <si>
     <t>84,61%</t>
   </si>
   <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
   </si>
   <si>
     <t>87,28%</t>
   </si>
   <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
   </si>
   <si>
     <t>21,62%</t>
   </si>
   <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
+    <t>24,93%</t>
   </si>
   <si>
     <t>25,61%</t>
   </si>
   <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
   </si>
   <si>
     <t>23,61%</t>
   </si>
   <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
   </si>
   <si>
     <t>78,38%</t>
   </si>
   <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
+    <t>75,07%</t>
   </si>
   <si>
     <t>74,39%</t>
   </si>
   <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
   </si>
   <si>
     <t>76,39%</t>
   </si>
   <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
   </si>
   <si>
     <t>24,56%</t>
   </si>
   <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
   </si>
   <si>
     <t>27,07%</t>
   </si>
   <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
   </si>
   <si>
     <t>26,05%</t>
   </si>
   <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
   </si>
   <si>
     <t>75,44%</t>
   </si>
   <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
   </si>
   <si>
     <t>72,93%</t>
   </si>
   <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
   </si>
   <si>
     <t>73,95%</t>
   </si>
   <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
   </si>
   <si>
     <t>13,73%</t>
@@ -795,31 +789,31 @@
     <t>12,49%</t>
   </si>
   <si>
-    <t>14,94%</t>
+    <t>14,93%</t>
   </si>
   <si>
     <t>17,03%</t>
   </si>
   <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
   </si>
   <si>
     <t>15,47%</t>
   </si>
   <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
   </si>
   <si>
     <t>86,27%</t>
   </si>
   <si>
-    <t>85,06%</t>
+    <t>85,07%</t>
   </si>
   <si>
     <t>87,51%</t>
@@ -828,19 +822,19 @@
     <t>82,97%</t>
   </si>
   <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
   </si>
   <si>
     <t>84,53%</t>
   </si>
   <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
   </si>
 </sst>
 </file>
@@ -1252,7 +1246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BBA2E6-F010-4F8F-B7EC-92269FC0CA7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA7A8BE-A3C5-4408-85AD-9FD3F76CFAEB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2471,7 +2465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A47B7E2-400D-4F90-A829-49C32D99ED7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5956B6-16B2-4E7E-8279-8DEA53FF39DF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2631,7 +2625,7 @@
         <v>151</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,13 +2640,13 @@
         <v>364944</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H5" s="7">
         <v>192</v>
@@ -2661,13 +2655,13 @@
         <v>329728</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>357</v>
@@ -2676,13 +2670,13 @@
         <v>694672</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2744,13 @@
         <v>33576</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>32</v>
@@ -2765,13 +2759,13 @@
         <v>33740</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -2780,13 +2774,13 @@
         <v>67315</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,13 +2795,13 @@
         <v>394820</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>427</v>
@@ -2816,13 +2810,13 @@
         <v>463695</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>705</v>
@@ -2831,13 +2825,13 @@
         <v>858516</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,13 +2899,13 @@
         <v>46079</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H10" s="7">
         <v>64</v>
@@ -2920,13 +2914,13 @@
         <v>44794</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M10" s="7">
         <v>111</v>
@@ -2935,13 +2929,13 @@
         <v>90873</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,13 +2950,13 @@
         <v>511173</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H11" s="7">
         <v>781</v>
@@ -3218,10 +3212,10 @@
         <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>242</v>
@@ -3230,13 +3224,13 @@
         <v>152074</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>384</v>
@@ -3245,13 +3239,13 @@
         <v>280938</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,13 +3260,13 @@
         <v>467110</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>224</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>133</v>
       </c>
       <c r="H17" s="7">
         <v>755</v>
@@ -3281,13 +3275,13 @@
         <v>441778</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M17" s="7">
         <v>1273</v>
@@ -3296,13 +3290,13 @@
         <v>908888</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,13 +3364,13 @@
         <v>169688</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H19" s="7">
         <v>499</v>
@@ -3385,13 +3379,13 @@
         <v>274500</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M19" s="7">
         <v>759</v>
@@ -3400,13 +3394,13 @@
         <v>444187</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,13 +3415,13 @@
         <v>521196</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H20" s="7">
         <v>1184</v>
@@ -3436,13 +3430,13 @@
         <v>739556</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M20" s="7">
         <v>1942</v>
@@ -3451,13 +3445,13 @@
         <v>1260753</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +3519,13 @@
         <v>463333</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H22" s="7">
         <v>1020</v>
@@ -3540,13 +3534,13 @@
         <v>644352</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M22" s="7">
         <v>1575</v>
@@ -3555,13 +3549,13 @@
         <v>1107685</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +3570,13 @@
         <v>2910842</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H23" s="7">
         <v>4304</v>
@@ -3591,13 +3585,13 @@
         <v>3139563</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M23" s="7">
         <v>7112</v>
@@ -3606,13 +3600,13 @@
         <v>6050405</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P57_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57_R-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8670724-2D24-4516-A6C1-649E287CEE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AFB19E0-09D9-4CD9-ACC8-0745F164C97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FD136E98-50D9-4398-B52C-C02F34DD69F9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{11B6E6CC-D006-4AD6-834D-73AC77D88279}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="266">
-  <si>
-    <t>Población con felicidad &lt;= 6 (Likert 0 a 10) en 2015 (Tasa respuesta: 99,57%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="268">
+  <si>
+    <t>Población con felicidad &lt;= 6 (Likert 0 a 10) en 2016 (Tasa respuesta: 99,57%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,447 +75,459 @@
     <t>6,02%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
   </si>
   <si>
     <t>6,95%</t>
   </si>
   <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
   </si>
   <si>
     <t>6,47%</t>
   </si>
   <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con felicidad &lt;= 6 (Likert 0 a 10) en 2023 (Tasa respuesta: 99,36%)</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
     <t>8,33%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
   </si>
   <si>
     <t>91,67%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con felicidad &lt;= 6 (Likert 0 a 10) en 2023 (Tasa respuesta: 99,36%)</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
     <t>96,9%</t>
   </si>
   <si>
@@ -696,9 +708,6 @@
     <t>28,58%</t>
   </si>
   <si>
-    <t>23,61%</t>
-  </si>
-  <si>
     <t>21,47%</t>
   </si>
   <si>
@@ -718,9 +727,6 @@
   </si>
   <si>
     <t>77,11%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
   </si>
   <si>
     <t>74,21%</t>
@@ -1246,7 +1252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA7A8BE-A3C5-4408-85AD-9FD3F76CFAEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE076A7-9891-42CD-A22A-91A5192C36AB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1403,16 +1409,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>372</v>
@@ -1421,13 +1427,13 @@
         <v>394211</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>373</v>
@@ -1436,13 +1442,13 @@
         <v>365433</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>745</v>
@@ -1451,13 +1457,13 @@
         <v>759644</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1472,13 +1478,13 @@
         <v>419463</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>401</v>
@@ -1487,13 +1493,13 @@
         <v>392745</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>794</v>
@@ -1502,18 +1508,18 @@
         <v>812208</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1525,13 +1531,13 @@
         <v>75801</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>63</v>
@@ -1540,13 +1546,13 @@
         <v>61749</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>133</v>
@@ -1555,19 +1561,19 @@
         <v>137550</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>493</v>
@@ -1576,13 +1582,13 @@
         <v>510154</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>512</v>
@@ -1591,13 +1597,13 @@
         <v>497339</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1005</v>
@@ -1606,13 +1612,13 @@
         <v>1007493</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1627,13 +1633,13 @@
         <v>585955</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>575</v>
@@ -1642,13 +1648,13 @@
         <v>559088</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1138</v>
@@ -1657,18 +1663,18 @@
         <v>1145043</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1680,13 +1686,13 @@
         <v>95957</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>92</v>
@@ -1695,13 +1701,13 @@
         <v>91610</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>183</v>
@@ -1710,19 +1716,19 @@
         <v>187567</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>544</v>
@@ -1731,13 +1737,13 @@
         <v>570328</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>572</v>
@@ -1746,13 +1752,13 @@
         <v>568842</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1116</v>
@@ -1761,13 +1767,13 @@
         <v>1139169</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1782,13 +1788,13 @@
         <v>666285</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>664</v>
@@ -1797,13 +1803,13 @@
         <v>660452</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1299</v>
@@ -1812,18 +1818,18 @@
         <v>1326736</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1835,13 +1841,13 @@
         <v>140455</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>132</v>
@@ -1850,13 +1856,13 @@
         <v>143154</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>259</v>
@@ -1865,19 +1871,19 @@
         <v>283609</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>452</v>
@@ -1886,13 +1892,13 @@
         <v>502345</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>467</v>
@@ -1901,13 +1907,13 @@
         <v>502612</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>919</v>
@@ -1916,13 +1922,13 @@
         <v>1004957</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1937,13 +1943,13 @@
         <v>642800</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>599</v>
@@ -1952,13 +1958,13 @@
         <v>645766</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1178</v>
@@ -1967,18 +1973,18 @@
         <v>1288566</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1990,13 +1996,13 @@
         <v>93311</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>147</v>
@@ -2005,13 +2011,13 @@
         <v>166682</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>229</v>
@@ -2020,19 +2026,19 @@
         <v>259993</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>341</v>
@@ -2041,13 +2047,13 @@
         <v>383543</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>285</v>
@@ -2056,13 +2062,13 @@
         <v>329121</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>626</v>
@@ -2071,13 +2077,13 @@
         <v>712664</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,13 +2098,13 @@
         <v>476854</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>432</v>
@@ -2107,13 +2113,13 @@
         <v>495803</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>855</v>
@@ -2122,18 +2128,18 @@
         <v>972657</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2145,13 +2151,13 @@
         <v>195317</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>282</v>
@@ -2160,13 +2166,13 @@
         <v>337396</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>495</v>
@@ -2175,19 +2181,19 @@
         <v>532712</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>412</v>
@@ -2196,13 +2202,13 @@
         <v>394059</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>370</v>
@@ -2211,13 +2217,13 @@
         <v>436854</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>782</v>
@@ -2226,13 +2232,13 @@
         <v>830914</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,13 +2253,13 @@
         <v>589376</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>652</v>
@@ -2262,13 +2268,13 @@
         <v>774250</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>1277</v>
@@ -2277,13 +2283,13 @@
         <v>1363626</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,13 +2306,13 @@
         <v>626093</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>744</v>
@@ -2315,13 +2321,13 @@
         <v>827903</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>1348</v>
@@ -2330,19 +2336,19 @@
         <v>1453996</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>2614</v>
@@ -2351,13 +2357,13 @@
         <v>2754640</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>2579</v>
@@ -2366,28 +2372,28 @@
         <v>2700201</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>5193</v>
       </c>
       <c r="N23" s="7">
-        <v>5454840</v>
+        <v>5454841</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,13 +2408,13 @@
         <v>3380733</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>3323</v>
@@ -2417,33 +2423,33 @@
         <v>3528104</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>6541</v>
       </c>
       <c r="N24" s="7">
-        <v>6908836</v>
+        <v>6908837</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2465,7 +2471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5956B6-16B2-4E7E-8279-8DEA53FF39DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7584C6EB-2727-4584-8CD2-313BC0F0948E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2482,7 +2488,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2589,13 +2595,13 @@
         <v>12735</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -2604,13 +2610,13 @@
         <v>25229</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -2619,19 +2625,19 @@
         <v>37964</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>165</v>
@@ -2640,13 +2646,13 @@
         <v>364944</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>192</v>
@@ -2655,13 +2661,13 @@
         <v>329728</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>357</v>
@@ -2670,13 +2676,13 @@
         <v>694672</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2691,13 +2697,13 @@
         <v>377679</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>207</v>
@@ -2706,13 +2712,13 @@
         <v>354957</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>379</v>
@@ -2721,18 +2727,18 @@
         <v>732636</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2744,13 +2750,13 @@
         <v>33576</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>32</v>
@@ -2759,13 +2765,13 @@
         <v>33740</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -2774,19 +2780,19 @@
         <v>67315</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>278</v>
@@ -2795,13 +2801,13 @@
         <v>394820</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>427</v>
@@ -2810,13 +2816,13 @@
         <v>463695</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>705</v>
@@ -2825,13 +2831,13 @@
         <v>858516</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,13 +2852,13 @@
         <v>428396</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>459</v>
@@ -2861,13 +2867,13 @@
         <v>497435</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>761</v>
@@ -2876,18 +2882,18 @@
         <v>925831</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2899,13 +2905,13 @@
         <v>46079</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>64</v>
@@ -2914,13 +2920,13 @@
         <v>44794</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>111</v>
@@ -2929,19 +2935,19 @@
         <v>90873</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>499</v>
@@ -2950,13 +2956,13 @@
         <v>511173</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>781</v>
@@ -2965,13 +2971,13 @@
         <v>537796</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>1280</v>
@@ -2980,13 +2986,13 @@
         <v>1048969</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,13 +3007,13 @@
         <v>557252</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>845</v>
@@ -3016,13 +3022,13 @@
         <v>582590</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1391</v>
@@ -3031,18 +3037,18 @@
         <v>1139842</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3054,13 +3060,13 @@
         <v>72391</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>168</v>
@@ -3069,13 +3075,13 @@
         <v>114016</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>243</v>
@@ -3084,19 +3090,19 @@
         <v>186407</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>590</v>
@@ -3105,13 +3111,13 @@
         <v>651599</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>965</v>
@@ -3120,13 +3126,13 @@
         <v>627010</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>1555</v>
@@ -3135,13 +3141,13 @@
         <v>1278609</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3156,13 +3162,13 @@
         <v>723990</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>1133</v>
@@ -3171,13 +3177,13 @@
         <v>741026</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1798</v>
@@ -3186,18 +3192,18 @@
         <v>1465016</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3209,13 +3215,13 @@
         <v>128864</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H16" s="7">
         <v>242</v>
@@ -3224,13 +3230,13 @@
         <v>152074</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M16" s="7">
         <v>384</v>
@@ -3239,19 +3245,19 @@
         <v>280938</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>219</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>518</v>
@@ -3260,13 +3266,13 @@
         <v>467110</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H17" s="7">
         <v>755</v>
@@ -3275,13 +3281,13 @@
         <v>441778</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M17" s="7">
         <v>1273</v>
@@ -3290,13 +3296,13 @@
         <v>908888</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,13 +3317,13 @@
         <v>595974</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>997</v>
@@ -3326,13 +3332,13 @@
         <v>593852</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>1657</v>
@@ -3341,18 +3347,18 @@
         <v>1189826</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3364,13 +3370,13 @@
         <v>169688</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H19" s="7">
         <v>499</v>
@@ -3379,13 +3385,13 @@
         <v>274500</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M19" s="7">
         <v>759</v>
@@ -3394,19 +3400,19 @@
         <v>444187</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>758</v>
@@ -3415,13 +3421,13 @@
         <v>521196</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H20" s="7">
         <v>1184</v>
@@ -3430,13 +3436,13 @@
         <v>739556</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M20" s="7">
         <v>1942</v>
@@ -3445,13 +3451,13 @@
         <v>1260753</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,13 +3472,13 @@
         <v>690884</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>1683</v>
@@ -3481,13 +3487,13 @@
         <v>1014056</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>2701</v>
@@ -3496,13 +3502,13 @@
         <v>1704940</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,13 +3525,13 @@
         <v>463333</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H22" s="7">
         <v>1020</v>
@@ -3534,13 +3540,13 @@
         <v>644352</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7">
         <v>1575</v>
@@ -3549,19 +3555,19 @@
         <v>1107685</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>2808</v>
@@ -3570,13 +3576,13 @@
         <v>2910842</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H23" s="7">
         <v>4304</v>
@@ -3585,13 +3591,13 @@
         <v>3139563</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M23" s="7">
         <v>7112</v>
@@ -3600,13 +3606,13 @@
         <v>6050405</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,13 +3627,13 @@
         <v>3374175</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>5324</v>
@@ -3636,13 +3642,13 @@
         <v>3783915</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>8687</v>
@@ -3651,18 +3657,18 @@
         <v>7158090</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AFB19E0-09D9-4CD9-ACC8-0745F164C97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A250D143-1030-4240-B65C-546A754A95A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{11B6E6CC-D006-4AD6-834D-73AC77D88279}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{438E419B-8108-4C5A-8627-F610DB270E03}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="268">
   <si>
-    <t>Población con felicidad &lt;= 6 (Likert 0 a 10) en 2016 (Tasa respuesta: 99,57%)</t>
+    <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10) en 2016 (Tasa respuesta: 99,57%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,28 +75,25 @@
     <t>6,02%</t>
   </si>
   <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
   </si>
   <si>
     <t>6,95%</t>
   </si>
   <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
   </si>
   <si>
     <t>6,47%</t>
   </si>
   <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
+    <t>8,33%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +102,25 @@
     <t>93,98%</t>
   </si>
   <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
   </si>
   <si>
     <t>93,05%</t>
   </si>
   <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
   </si>
   <si>
     <t>93,53%</t>
   </si>
   <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
+    <t>91,67%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,16 +132,16 @@
     <t>12,94%</t>
   </si>
   <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
   </si>
   <si>
     <t>11,04%</t>
   </si>
   <si>
-    <t>8,74%</t>
+    <t>8,65%</t>
   </si>
   <si>
     <t>13,77%</t>
@@ -156,19 +150,19 @@
     <t>12,01%</t>
   </si>
   <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
   </si>
   <si>
     <t>87,06%</t>
   </si>
   <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
   </si>
   <si>
     <t>88,96%</t>
@@ -177,16 +171,16 @@
     <t>86,23%</t>
   </si>
   <si>
-    <t>91,26%</t>
+    <t>91,35%</t>
   </si>
   <si>
     <t>87,99%</t>
   </si>
   <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -195,55 +189,55 @@
     <t>14,4%</t>
   </si>
   <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
   </si>
   <si>
     <t>13,87%</t>
   </si>
   <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
   </si>
   <si>
     <t>14,14%</t>
   </si>
   <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
   </si>
   <si>
     <t>85,6%</t>
   </si>
   <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
   </si>
   <si>
     <t>86,13%</t>
   </si>
   <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
   </si>
   <si>
     <t>85,86%</t>
   </si>
   <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -252,55 +246,55 @@
     <t>21,85%</t>
   </si>
   <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
   </si>
   <si>
     <t>22,17%</t>
   </si>
   <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
   </si>
   <si>
     <t>22,01%</t>
   </si>
   <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
   </si>
   <si>
     <t>78,15%</t>
   </si>
   <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
   </si>
   <si>
     <t>77,83%</t>
   </si>
   <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
   </si>
   <si>
     <t>77,99%</t>
   </si>
   <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -309,484 +303,490 @@
     <t>19,57%</t>
   </si>
   <si>
-    <t>15,89%</t>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10) en 2023 (Tasa respuesta: 99,36%)</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
   </si>
   <si>
     <t>23,61%</t>
   </si>
   <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
   </si>
   <si>
     <t>76,39%</t>
   </si>
   <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con felicidad &lt;= 6 (Likert 0 a 10) en 2023 (Tasa respuesta: 99,36%)</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
   </si>
   <si>
     <t>24,56%</t>
   </si>
   <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
   </si>
   <si>
     <t>27,07%</t>
   </si>
   <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
   </si>
   <si>
     <t>26,05%</t>
   </si>
   <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
   </si>
   <si>
     <t>75,44%</t>
   </si>
   <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
   </si>
   <si>
     <t>72,93%</t>
   </si>
   <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
   </si>
   <si>
     <t>73,95%</t>
   </si>
   <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
   </si>
   <si>
     <t>13,73%</t>
@@ -795,31 +795,31 @@
     <t>12,49%</t>
   </si>
   <si>
-    <t>14,93%</t>
+    <t>14,94%</t>
   </si>
   <si>
     <t>17,03%</t>
   </si>
   <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
   </si>
   <si>
     <t>15,47%</t>
   </si>
   <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
   </si>
   <si>
     <t>86,27%</t>
   </si>
   <si>
-    <t>85,07%</t>
+    <t>85,06%</t>
   </si>
   <si>
     <t>87,51%</t>
@@ -828,19 +828,19 @@
     <t>82,97%</t>
   </si>
   <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
   </si>
   <si>
     <t>84,53%</t>
   </si>
   <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
   </si>
 </sst>
 </file>
@@ -1252,7 +1252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE076A7-9891-42CD-A22A-91A5192C36AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624C3410-0310-4795-A85F-8044305780CF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1409,16 +1409,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>372</v>
@@ -1427,13 +1427,13 @@
         <v>394211</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>373</v>
@@ -1442,13 +1442,13 @@
         <v>365433</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>745</v>
@@ -1457,13 +1457,13 @@
         <v>759644</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1478,13 +1478,13 @@
         <v>419463</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>401</v>
@@ -1493,13 +1493,13 @@
         <v>392745</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>794</v>
@@ -1508,18 +1508,18 @@
         <v>812208</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1531,13 +1531,13 @@
         <v>75801</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>63</v>
@@ -1546,13 +1546,13 @@
         <v>61749</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>133</v>
@@ -1561,19 +1561,19 @@
         <v>137550</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>493</v>
@@ -1582,13 +1582,13 @@
         <v>510154</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>512</v>
@@ -1597,13 +1597,13 @@
         <v>497339</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1005</v>
@@ -1612,13 +1612,13 @@
         <v>1007493</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1633,13 +1633,13 @@
         <v>585955</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>575</v>
@@ -1648,13 +1648,13 @@
         <v>559088</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>1138</v>
@@ -1663,18 +1663,18 @@
         <v>1145043</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1686,13 +1686,13 @@
         <v>95957</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>92</v>
@@ -1701,13 +1701,13 @@
         <v>91610</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>183</v>
@@ -1716,19 +1716,19 @@
         <v>187567</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>544</v>
@@ -1737,13 +1737,13 @@
         <v>570328</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>572</v>
@@ -1752,13 +1752,13 @@
         <v>568842</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1116</v>
@@ -1767,13 +1767,13 @@
         <v>1139169</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1788,13 +1788,13 @@
         <v>666285</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>664</v>
@@ -1803,13 +1803,13 @@
         <v>660452</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1299</v>
@@ -1818,18 +1818,18 @@
         <v>1326736</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1841,13 +1841,13 @@
         <v>140455</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>132</v>
@@ -1856,13 +1856,13 @@
         <v>143154</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>259</v>
@@ -1871,19 +1871,19 @@
         <v>283609</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>452</v>
@@ -1892,13 +1892,13 @@
         <v>502345</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>467</v>
@@ -1907,13 +1907,13 @@
         <v>502612</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>919</v>
@@ -1922,13 +1922,13 @@
         <v>1004957</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1943,13 +1943,13 @@
         <v>642800</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>599</v>
@@ -1958,13 +1958,13 @@
         <v>645766</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>1178</v>
@@ -1973,18 +1973,18 @@
         <v>1288566</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1996,13 +1996,13 @@
         <v>93311</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>147</v>
@@ -2011,13 +2011,13 @@
         <v>166682</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>229</v>
@@ -2026,19 +2026,19 @@
         <v>259993</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>341</v>
@@ -2047,13 +2047,13 @@
         <v>383543</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>285</v>
@@ -2062,13 +2062,13 @@
         <v>329121</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>626</v>
@@ -2077,13 +2077,13 @@
         <v>712664</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2098,13 +2098,13 @@
         <v>476854</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>432</v>
@@ -2113,13 +2113,13 @@
         <v>495803</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>855</v>
@@ -2128,18 +2128,18 @@
         <v>972657</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2151,13 +2151,13 @@
         <v>195317</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>282</v>
@@ -2166,13 +2166,13 @@
         <v>337396</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>495</v>
@@ -2181,19 +2181,19 @@
         <v>532712</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>412</v>
@@ -2202,13 +2202,13 @@
         <v>394059</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>370</v>
@@ -2217,13 +2217,13 @@
         <v>436854</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>782</v>
@@ -2232,13 +2232,13 @@
         <v>830914</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,13 +2253,13 @@
         <v>589376</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>652</v>
@@ -2268,13 +2268,13 @@
         <v>774250</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>1277</v>
@@ -2283,13 +2283,13 @@
         <v>1363626</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2306,13 +2306,13 @@
         <v>626093</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>744</v>
@@ -2321,13 +2321,13 @@
         <v>827903</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>1348</v>
@@ -2336,19 +2336,19 @@
         <v>1453996</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>2614</v>
@@ -2357,13 +2357,13 @@
         <v>2754640</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>2579</v>
@@ -2372,28 +2372,28 @@
         <v>2700201</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>5193</v>
       </c>
       <c r="N23" s="7">
-        <v>5454841</v>
+        <v>5454840</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,13 +2408,13 @@
         <v>3380733</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>3323</v>
@@ -2423,33 +2423,33 @@
         <v>3528104</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>6541</v>
       </c>
       <c r="N24" s="7">
-        <v>6908837</v>
+        <v>6908836</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2471,7 +2471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7584C6EB-2727-4584-8CD2-313BC0F0948E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B694207A-BC13-4C0B-9B50-C4206A17186F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2488,7 +2488,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2595,13 +2595,13 @@
         <v>12735</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -2610,13 +2610,13 @@
         <v>25229</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -2625,19 +2625,19 @@
         <v>37964</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>165</v>
@@ -2646,13 +2646,13 @@
         <v>364944</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>192</v>
@@ -2661,13 +2661,13 @@
         <v>329728</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>357</v>
@@ -2676,13 +2676,13 @@
         <v>694672</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,13 +2697,13 @@
         <v>377679</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>207</v>
@@ -2712,13 +2712,13 @@
         <v>354957</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>379</v>
@@ -2727,18 +2727,18 @@
         <v>732636</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2750,13 +2750,13 @@
         <v>33576</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>32</v>
@@ -2765,13 +2765,13 @@
         <v>33740</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -2780,19 +2780,19 @@
         <v>67315</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>278</v>
@@ -2801,13 +2801,13 @@
         <v>394820</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>427</v>
@@ -2816,13 +2816,13 @@
         <v>463695</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>705</v>
@@ -2831,13 +2831,13 @@
         <v>858516</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,13 +2852,13 @@
         <v>428396</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>459</v>
@@ -2867,13 +2867,13 @@
         <v>497435</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>761</v>
@@ -2882,18 +2882,18 @@
         <v>925831</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2905,13 +2905,13 @@
         <v>46079</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H10" s="7">
         <v>64</v>
@@ -2920,13 +2920,13 @@
         <v>44794</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M10" s="7">
         <v>111</v>
@@ -2935,19 +2935,19 @@
         <v>90873</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>499</v>
@@ -2956,13 +2956,13 @@
         <v>511173</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>193</v>
+        <v>20</v>
       </c>
       <c r="H11" s="7">
         <v>781</v>
@@ -2971,13 +2971,13 @@
         <v>537796</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M11" s="7">
         <v>1280</v>
@@ -2986,13 +2986,13 @@
         <v>1048969</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,13 +3007,13 @@
         <v>557252</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>845</v>
@@ -3022,13 +3022,13 @@
         <v>582590</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1391</v>
@@ -3037,18 +3037,18 @@
         <v>1139842</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3060,13 +3060,13 @@
         <v>72391</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>168</v>
@@ -3075,13 +3075,13 @@
         <v>114016</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>243</v>
@@ -3090,19 +3090,19 @@
         <v>186407</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>590</v>
@@ -3111,13 +3111,13 @@
         <v>651599</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>965</v>
@@ -3126,13 +3126,13 @@
         <v>627010</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>1555</v>
@@ -3141,13 +3141,13 @@
         <v>1278609</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,13 +3162,13 @@
         <v>723990</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>1133</v>
@@ -3177,13 +3177,13 @@
         <v>741026</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>1798</v>
@@ -3192,18 +3192,18 @@
         <v>1465016</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3215,13 +3215,13 @@
         <v>128864</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>242</v>
@@ -3230,13 +3230,13 @@
         <v>152074</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>384</v>
@@ -3245,19 +3245,19 @@
         <v>280938</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>220</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>518</v>
@@ -3266,13 +3266,13 @@
         <v>467110</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H17" s="7">
         <v>755</v>
@@ -3281,13 +3281,13 @@
         <v>441778</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M17" s="7">
         <v>1273</v>
@@ -3296,7 +3296,7 @@
         <v>908888</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>230</v>
@@ -3317,13 +3317,13 @@
         <v>595974</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>997</v>
@@ -3332,13 +3332,13 @@
         <v>593852</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>1657</v>
@@ -3347,18 +3347,18 @@
         <v>1189826</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3412,7 +3412,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>758</v>
@@ -3472,13 +3472,13 @@
         <v>690884</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>1683</v>
@@ -3487,13 +3487,13 @@
         <v>1014056</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>2701</v>
@@ -3502,13 +3502,13 @@
         <v>1704940</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,7 +3567,7 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>2808</v>
@@ -3627,13 +3627,13 @@
         <v>3374175</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>5324</v>
@@ -3642,13 +3642,13 @@
         <v>3783915</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>8687</v>
@@ -3657,18 +3657,18 @@
         <v>7158090</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A250D143-1030-4240-B65C-546A754A95A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{903FB7F7-6716-4CD6-B658-06EA642431F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{438E419B-8108-4C5A-8627-F610DB270E03}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{41C35F4E-7C8E-4B78-9077-7CDB6AA6DB76}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="268">
-  <si>
-    <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10) en 2016 (Tasa respuesta: 99,57%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="299">
+  <si>
+    <t>Población con autopercepción de la felicidad menor o igual a 6 (Likert 0 a 10) en 2016 (Tasa respuesta: 99,57%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -126,7 +126,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>12,94%</t>
@@ -183,7 +183,7 @@
     <t>89,73%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>14,4%</t>
@@ -240,7 +240,7 @@
     <t>87,78%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>21,85%</t>
@@ -297,7 +297,7 @@
     <t>80,29%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>19,57%</t>
@@ -354,61 +354,118 @@
     <t>76,12%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>33,14%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
   </si>
   <si>
     <t>29,72%</t>
   </si>
   <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
   </si>
   <si>
     <t>70,28%</t>
   </si>
   <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
   </si>
   <si>
     <t>18,52%</t>
@@ -468,379 +525,415 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10) en 2023 (Tasa respuesta: 99,36%)</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
+    <t>Población con autopercepción de la felicidad menor o igual a 6 (Likert 0 a 10) en 2023 (Tasa respuesta: 99,36%)</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
   </si>
   <si>
     <t>5,01%</t>
   </si>
   <si>
-    <t>11,48%</t>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
   </si>
   <si>
     <t>6,78%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
   </si>
   <si>
     <t>94,99%</t>
   </si>
   <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
     <t>93,22%</t>
   </si>
   <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
   </si>
   <si>
     <t>85,5%</t>
   </si>
   <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
   </si>
 </sst>
 </file>
@@ -1252,8 +1345,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624C3410-0310-4795-A85F-8044305780CF}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229017DA-AD08-46B4-B2FF-60C958EA2269}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2145,10 +2238,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>213</v>
+        <v>90</v>
       </c>
       <c r="D19" s="7">
-        <v>195317</v>
+        <v>91039</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>106</v>
@@ -2160,10 +2253,10 @@
         <v>108</v>
       </c>
       <c r="H19" s="7">
-        <v>282</v>
+        <v>136</v>
       </c>
       <c r="I19" s="7">
-        <v>337396</v>
+        <v>143812</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>109</v>
@@ -2175,10 +2268,10 @@
         <v>111</v>
       </c>
       <c r="M19" s="7">
-        <v>495</v>
+        <v>226</v>
       </c>
       <c r="N19" s="7">
-        <v>532712</v>
+        <v>234850</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>112</v>
@@ -2196,10 +2289,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>412</v>
+        <v>233</v>
       </c>
       <c r="D20" s="7">
-        <v>394059</v>
+        <v>241339</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>115</v>
@@ -2211,10 +2304,10 @@
         <v>117</v>
       </c>
       <c r="H20" s="7">
-        <v>370</v>
+        <v>218</v>
       </c>
       <c r="I20" s="7">
-        <v>436854</v>
+        <v>233950</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>118</v>
@@ -2226,10 +2319,10 @@
         <v>120</v>
       </c>
       <c r="M20" s="7">
-        <v>782</v>
+        <v>451</v>
       </c>
       <c r="N20" s="7">
-        <v>830914</v>
+        <v>475290</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>121</v>
@@ -2247,10 +2340,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>625</v>
+        <v>323</v>
       </c>
       <c r="D21" s="7">
-        <v>589376</v>
+        <v>332378</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -2262,10 +2355,10 @@
         <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>652</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>774250</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -2277,10 +2370,10 @@
         <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>1277</v>
+        <v>677</v>
       </c>
       <c r="N21" s="7">
-        <v>1363626</v>
+        <v>710140</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -2294,55 +2387,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>604</v>
+        <v>123</v>
       </c>
       <c r="D22" s="7">
-        <v>626093</v>
+        <v>104278</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
-        <v>744</v>
+        <v>146</v>
       </c>
       <c r="I22" s="7">
-        <v>827903</v>
+        <v>193584</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
-        <v>1348</v>
+        <v>269</v>
       </c>
       <c r="N22" s="7">
-        <v>1453996</v>
+        <v>297862</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,49 +2444,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>2614</v>
+        <v>179</v>
       </c>
       <c r="D23" s="7">
-        <v>2754640</v>
+        <v>152720</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
-        <v>2579</v>
+        <v>152</v>
       </c>
       <c r="I23" s="7">
-        <v>2700201</v>
+        <v>202904</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
-        <v>5193</v>
+        <v>331</v>
       </c>
       <c r="N23" s="7">
-        <v>5454840</v>
+        <v>355624</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,63 +2495,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7">
+        <v>298</v>
+      </c>
+      <c r="I24" s="7">
+        <v>396488</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="7">
+        <v>600</v>
+      </c>
+      <c r="N24" s="7">
+        <v>653486</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>604</v>
+      </c>
+      <c r="D25" s="7">
+        <v>626093</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>744</v>
+      </c>
+      <c r="I25" s="7">
+        <v>827903</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1348</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1453996</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2614</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2754640</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2579</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2700201</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5193</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5454841</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3218</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3380733</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
         <v>3323</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3528104</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="7">
         <v>6541</v>
       </c>
-      <c r="N24" s="7">
-        <v>6908836</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>6908837</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2471,8 +2720,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B694207A-BC13-4C0B-9B50-C4206A17186F}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3919AA6A-5A13-43BE-AAB2-7D8CB714DBEC}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2488,7 +2737,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2592,46 +2841,46 @@
         <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>12735</v>
+        <v>12926</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>25229</v>
+        <v>21753</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
       </c>
       <c r="N4" s="7">
-        <v>37964</v>
+        <v>34678</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,46 +2892,46 @@
         <v>165</v>
       </c>
       <c r="D5" s="7">
-        <v>364944</v>
+        <v>387061</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>192</v>
       </c>
       <c r="I5" s="7">
-        <v>329728</v>
+        <v>291447</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="M5" s="7">
         <v>357</v>
       </c>
       <c r="N5" s="7">
-        <v>694672</v>
+        <v>678509</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,7 +2943,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>28</v>
@@ -2709,7 +2958,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>28</v>
@@ -2724,7 +2973,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>28</v>
@@ -2747,46 +2996,46 @@
         <v>24</v>
       </c>
       <c r="D7" s="7">
-        <v>33576</v>
+        <v>33559</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>32</v>
       </c>
       <c r="I7" s="7">
-        <v>33740</v>
+        <v>29730</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
       </c>
       <c r="N7" s="7">
-        <v>67315</v>
+        <v>63289</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,46 +3047,46 @@
         <v>278</v>
       </c>
       <c r="D8" s="7">
-        <v>394820</v>
+        <v>389988</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>427</v>
       </c>
       <c r="I8" s="7">
-        <v>463695</v>
+        <v>480835</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>705</v>
       </c>
       <c r="N8" s="7">
-        <v>858516</v>
+        <v>870823</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,7 +3098,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>28</v>
@@ -2864,7 +3113,7 @@
         <v>459</v>
       </c>
       <c r="I9" s="7">
-        <v>497435</v>
+        <v>510565</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -2879,7 +3128,7 @@
         <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>925831</v>
+        <v>934112</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -2902,46 +3151,46 @@
         <v>47</v>
       </c>
       <c r="D10" s="7">
-        <v>46079</v>
+        <v>43035</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>64</v>
       </c>
       <c r="I10" s="7">
-        <v>44794</v>
+        <v>40113</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>111</v>
       </c>
       <c r="N10" s="7">
-        <v>90873</v>
+        <v>83148</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,46 +3202,46 @@
         <v>499</v>
       </c>
       <c r="D11" s="7">
-        <v>511173</v>
+        <v>493303</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="H11" s="7">
         <v>781</v>
       </c>
       <c r="I11" s="7">
-        <v>537796</v>
+        <v>501652</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>1280</v>
       </c>
       <c r="N11" s="7">
-        <v>1048969</v>
+        <v>994955</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,7 +3253,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>28</v>
@@ -3019,7 +3268,7 @@
         <v>845</v>
       </c>
       <c r="I12" s="7">
-        <v>582590</v>
+        <v>541765</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -3034,7 +3283,7 @@
         <v>1391</v>
       </c>
       <c r="N12" s="7">
-        <v>1139842</v>
+        <v>1078103</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>28</v>
@@ -3057,46 +3306,46 @@
         <v>75</v>
       </c>
       <c r="D13" s="7">
-        <v>72391</v>
+        <v>67877</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="H13" s="7">
         <v>168</v>
       </c>
       <c r="I13" s="7">
-        <v>114016</v>
+        <v>102520</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>243</v>
       </c>
       <c r="N13" s="7">
-        <v>186407</v>
+        <v>170396</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,46 +3357,46 @@
         <v>590</v>
       </c>
       <c r="D14" s="7">
-        <v>651599</v>
+        <v>819909</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="H14" s="7">
         <v>965</v>
       </c>
       <c r="I14" s="7">
-        <v>627010</v>
+        <v>604528</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="M14" s="7">
         <v>1555</v>
       </c>
       <c r="N14" s="7">
-        <v>1278609</v>
+        <v>1424438</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,7 +3408,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
@@ -3174,7 +3423,7 @@
         <v>1133</v>
       </c>
       <c r="I15" s="7">
-        <v>741026</v>
+        <v>707048</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -3189,7 +3438,7 @@
         <v>1798</v>
       </c>
       <c r="N15" s="7">
-        <v>1465016</v>
+        <v>1594834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
@@ -3212,46 +3461,46 @@
         <v>142</v>
       </c>
       <c r="D16" s="7">
-        <v>128864</v>
+        <v>117833</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="H16" s="7">
         <v>242</v>
       </c>
       <c r="I16" s="7">
-        <v>152074</v>
+        <v>136337</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="M16" s="7">
         <v>384</v>
       </c>
       <c r="N16" s="7">
-        <v>280938</v>
+        <v>254169</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>149</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,46 +3512,46 @@
         <v>518</v>
       </c>
       <c r="D17" s="7">
-        <v>467110</v>
+        <v>439640</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="H17" s="7">
         <v>755</v>
       </c>
       <c r="I17" s="7">
-        <v>441778</v>
+        <v>408615</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="M17" s="7">
         <v>1273</v>
       </c>
       <c r="N17" s="7">
-        <v>908888</v>
+        <v>848256</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,7 +3563,7 @@
         <v>660</v>
       </c>
       <c r="D18" s="7">
-        <v>595974</v>
+        <v>557473</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>28</v>
@@ -3329,7 +3578,7 @@
         <v>997</v>
       </c>
       <c r="I18" s="7">
-        <v>593852</v>
+        <v>544952</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>28</v>
@@ -3344,7 +3593,7 @@
         <v>1657</v>
       </c>
       <c r="N18" s="7">
-        <v>1189826</v>
+        <v>1102425</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>28</v>
@@ -3364,49 +3613,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>260</v>
+        <v>111</v>
       </c>
       <c r="D19" s="7">
-        <v>169688</v>
+        <v>68661</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="H19" s="7">
-        <v>499</v>
+        <v>197</v>
       </c>
       <c r="I19" s="7">
-        <v>274500</v>
+        <v>100624</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="M19" s="7">
-        <v>759</v>
+        <v>308</v>
       </c>
       <c r="N19" s="7">
-        <v>444187</v>
+        <v>169284</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,49 +3664,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>758</v>
+        <v>456</v>
       </c>
       <c r="D20" s="7">
-        <v>521196</v>
+        <v>297355</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="H20" s="7">
-        <v>1184</v>
+        <v>628</v>
       </c>
       <c r="I20" s="7">
-        <v>739556</v>
+        <v>506707</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="M20" s="7">
-        <v>1942</v>
+        <v>1084</v>
       </c>
       <c r="N20" s="7">
-        <v>1260753</v>
+        <v>804063</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,10 +3715,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1018</v>
+        <v>567</v>
       </c>
       <c r="D21" s="7">
-        <v>690884</v>
+        <v>366016</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -3481,10 +3730,10 @@
         <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>1683</v>
+        <v>825</v>
       </c>
       <c r="I21" s="7">
-        <v>1014056</v>
+        <v>607331</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -3496,10 +3745,10 @@
         <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>2701</v>
+        <v>1392</v>
       </c>
       <c r="N21" s="7">
-        <v>1704940</v>
+        <v>973347</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -3513,55 +3762,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>555</v>
+        <v>149</v>
       </c>
       <c r="D22" s="7">
-        <v>463333</v>
+        <v>85986</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="H22" s="7">
-        <v>1020</v>
+        <v>302</v>
       </c>
       <c r="I22" s="7">
-        <v>644352</v>
+        <v>142774</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="M22" s="7">
-        <v>1575</v>
+        <v>451</v>
       </c>
       <c r="N22" s="7">
-        <v>1107685</v>
+        <v>228761</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,49 +3819,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>2808</v>
+        <v>302</v>
       </c>
       <c r="D23" s="7">
-        <v>2910842</v>
+        <v>192498</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="H23" s="7">
-        <v>4304</v>
+        <v>556</v>
       </c>
       <c r="I23" s="7">
-        <v>3139563</v>
+        <v>272683</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="M23" s="7">
-        <v>7112</v>
+        <v>858</v>
       </c>
       <c r="N23" s="7">
-        <v>6050405</v>
+        <v>465180</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,63 +3870,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>451</v>
+      </c>
+      <c r="D24" s="7">
+        <v>278484</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7">
+        <v>858</v>
+      </c>
+      <c r="I24" s="7">
+        <v>415457</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1309</v>
+      </c>
+      <c r="N24" s="7">
+        <v>693941</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>555</v>
+      </c>
+      <c r="D25" s="7">
+        <v>429876</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1020</v>
+      </c>
+      <c r="I25" s="7">
+        <v>573850</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1575</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1003726</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2808</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3019757</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4304</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3066466</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7112</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6086223</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3363</v>
       </c>
-      <c r="D24" s="7">
-        <v>3374175</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3449633</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
         <v>5324</v>
       </c>
-      <c r="I24" s="7">
-        <v>3783915</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3640316</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="7">
         <v>8687</v>
       </c>
-      <c r="N24" s="7">
-        <v>7158090</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>7089949</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
